--- a/cht_app/forms/app/assessment.xlsx
+++ b/cht_app/forms/app/assessment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="232">
   <si>
     <t>type</t>
   </si>
@@ -289,6 +289,15 @@
     <t>Have you recently received any vaccination/immunization?</t>
   </si>
   <si>
+    <t>reaction</t>
+  </si>
+  <si>
+    <t>Do you have any adverse drug reactions.</t>
+  </si>
+  <si>
+    <t>selected(${medication},'yes') or selected(${immunization}, 'yes')</t>
+  </si>
+  <si>
     <t>pqmp_title</t>
   </si>
   <si>
@@ -314,12 +323,6 @@
   </si>
   <si>
     <t>Have there been any deaths in the household following an adverse drug reaction, vaccine/immunization or poor quality medicine?</t>
-  </si>
-  <si>
-    <t>reaction</t>
-  </si>
-  <si>
-    <t>Do you have any adverse drug reactions.</t>
   </si>
   <si>
     <t>data</t>
@@ -760,6 +763,16 @@
     </font>
     <font>
       <sz val="12.0"/>
+      <color rgb="FF333333"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
@@ -772,11 +785,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
-      <color rgb="FF333333"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
       <sz val="12.0"/>
       <color rgb="FF333333"/>
       <name val="Cambria"/>
@@ -838,11 +846,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -893,12 +896,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor rgb="FFFCE5CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
@@ -925,6 +922,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -1009,34 +1012,34 @@
     <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1045,98 +1048,98 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="10" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="11" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="12" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="11" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="14" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="15" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="13" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="11" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="14" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="15" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="10" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="6" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="13" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="12" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3423,17 +3426,17 @@
       <c r="AE38" s="25"/>
       <c r="AF38" s="25"/>
       <c r="AG38" s="25"/>
-      <c r="AH38" s="27"/>
-      <c r="AI38" s="27"/>
-      <c r="AJ38" s="27"/>
-      <c r="AK38" s="27"/>
-      <c r="AL38" s="27"/>
-      <c r="AM38" s="27"/>
-      <c r="AN38" s="27"/>
-      <c r="AO38" s="27"/>
-      <c r="AP38" s="27"/>
-      <c r="AQ38" s="27"/>
-      <c r="AR38" s="27"/>
+      <c r="AH38" s="26"/>
+      <c r="AI38" s="26"/>
+      <c r="AJ38" s="26"/>
+      <c r="AK38" s="26"/>
+      <c r="AL38" s="26"/>
+      <c r="AM38" s="26"/>
+      <c r="AN38" s="26"/>
+      <c r="AO38" s="26"/>
+      <c r="AP38" s="26"/>
+      <c r="AQ38" s="26"/>
+      <c r="AR38" s="26"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="19" t="s">
@@ -3442,7 +3445,7 @@
       <c r="B39" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="27" t="s">
         <v>87</v>
       </c>
       <c r="D39" s="25"/>
@@ -3477,17 +3480,17 @@
       <c r="AE39" s="25"/>
       <c r="AF39" s="25"/>
       <c r="AG39" s="25"/>
-      <c r="AH39" s="27"/>
-      <c r="AI39" s="27"/>
-      <c r="AJ39" s="27"/>
-      <c r="AK39" s="27"/>
-      <c r="AL39" s="27"/>
-      <c r="AM39" s="27"/>
-      <c r="AN39" s="27"/>
-      <c r="AO39" s="27"/>
-      <c r="AP39" s="27"/>
-      <c r="AQ39" s="27"/>
-      <c r="AR39" s="27"/>
+      <c r="AH39" s="26"/>
+      <c r="AI39" s="26"/>
+      <c r="AJ39" s="26"/>
+      <c r="AK39" s="26"/>
+      <c r="AL39" s="26"/>
+      <c r="AM39" s="26"/>
+      <c r="AN39" s="26"/>
+      <c r="AO39" s="26"/>
+      <c r="AP39" s="26"/>
+      <c r="AQ39" s="26"/>
+      <c r="AR39" s="26"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="19" t="s">
@@ -3496,7 +3499,7 @@
       <c r="B40" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="27" t="s">
         <v>90</v>
       </c>
       <c r="D40" s="25"/>
@@ -3508,7 +3511,7 @@
       <c r="J40" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="K40" s="29"/>
+      <c r="K40" s="28"/>
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
       <c r="N40" s="25"/>
@@ -3531,26 +3534,26 @@
       <c r="AE40" s="25"/>
       <c r="AF40" s="25"/>
       <c r="AG40" s="25"/>
-      <c r="AH40" s="27"/>
-      <c r="AI40" s="27"/>
-      <c r="AJ40" s="27"/>
-      <c r="AK40" s="27"/>
-      <c r="AL40" s="27"/>
-      <c r="AM40" s="27"/>
-      <c r="AN40" s="27"/>
-      <c r="AO40" s="27"/>
-      <c r="AP40" s="27"/>
-      <c r="AQ40" s="27"/>
-      <c r="AR40" s="27"/>
+      <c r="AH40" s="26"/>
+      <c r="AI40" s="26"/>
+      <c r="AJ40" s="26"/>
+      <c r="AK40" s="26"/>
+      <c r="AL40" s="26"/>
+      <c r="AM40" s="26"/>
+      <c r="AN40" s="26"/>
+      <c r="AO40" s="26"/>
+      <c r="AP40" s="26"/>
+      <c r="AQ40" s="26"/>
+      <c r="AR40" s="26"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="20" t="s">
-        <v>82</v>
+      <c r="A41" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="B41" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="29" t="s">
         <v>92</v>
       </c>
       <c r="D41" s="25"/>
@@ -3559,8 +3562,12 @@
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="26"/>
+      <c r="J41" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="K41" s="31" t="s">
+        <v>93</v>
+      </c>
       <c r="L41" s="25"/>
       <c r="M41" s="25"/>
       <c r="N41" s="25"/>
@@ -3583,27 +3590,27 @@
       <c r="AE41" s="25"/>
       <c r="AF41" s="25"/>
       <c r="AG41" s="25"/>
-      <c r="AH41" s="27"/>
-      <c r="AI41" s="27"/>
-      <c r="AJ41" s="27"/>
-      <c r="AK41" s="27"/>
-      <c r="AL41" s="27"/>
-      <c r="AM41" s="27"/>
-      <c r="AN41" s="27"/>
-      <c r="AO41" s="27"/>
-      <c r="AP41" s="27"/>
-      <c r="AQ41" s="27"/>
-      <c r="AR41" s="27"/>
+      <c r="AH41" s="26"/>
+      <c r="AI41" s="26"/>
+      <c r="AJ41" s="26"/>
+      <c r="AK41" s="26"/>
+      <c r="AL41" s="26"/>
+      <c r="AM41" s="26"/>
+      <c r="AN41" s="26"/>
+      <c r="AO41" s="26"/>
+      <c r="AP41" s="26"/>
+      <c r="AQ41" s="26"/>
+      <c r="AR41" s="26"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="19" t="s">
-        <v>85</v>
+      <c r="A42" s="20" t="s">
+        <v>82</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
-      <c r="C42" s="30" t="s">
-        <v>94</v>
+      <c r="C42" s="24" t="s">
+        <v>95</v>
       </c>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
@@ -3611,9 +3618,7 @@
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
-      <c r="J42" s="25" t="s">
-        <v>88</v>
-      </c>
+      <c r="J42" s="25"/>
       <c r="K42" s="26"/>
       <c r="L42" s="25"/>
       <c r="M42" s="25"/>
@@ -3626,9 +3631,7 @@
       <c r="T42" s="25"/>
       <c r="U42" s="25"/>
       <c r="V42" s="25"/>
-      <c r="W42" s="31" t="s">
-        <v>95</v>
-      </c>
+      <c r="W42" s="25"/>
       <c r="X42" s="25"/>
       <c r="Y42" s="25"/>
       <c r="Z42" s="25"/>
@@ -3639,21 +3642,21 @@
       <c r="AE42" s="25"/>
       <c r="AF42" s="25"/>
       <c r="AG42" s="25"/>
-      <c r="AH42" s="27"/>
-      <c r="AI42" s="27"/>
-      <c r="AJ42" s="27"/>
-      <c r="AK42" s="27"/>
-      <c r="AL42" s="27"/>
-      <c r="AM42" s="27"/>
-      <c r="AN42" s="27"/>
-      <c r="AO42" s="27"/>
-      <c r="AP42" s="27"/>
-      <c r="AQ42" s="27"/>
-      <c r="AR42" s="27"/>
+      <c r="AH42" s="26"/>
+      <c r="AI42" s="26"/>
+      <c r="AJ42" s="26"/>
+      <c r="AK42" s="26"/>
+      <c r="AL42" s="26"/>
+      <c r="AM42" s="26"/>
+      <c r="AN42" s="26"/>
+      <c r="AO42" s="26"/>
+      <c r="AP42" s="26"/>
+      <c r="AQ42" s="26"/>
+      <c r="AR42" s="26"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="20" t="s">
-        <v>82</v>
+      <c r="A43" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>96</v>
@@ -3667,7 +3670,9 @@
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
+      <c r="J43" s="25" t="s">
+        <v>88</v>
+      </c>
       <c r="K43" s="26"/>
       <c r="L43" s="25"/>
       <c r="M43" s="25"/>
@@ -3680,7 +3685,9 @@
       <c r="T43" s="25"/>
       <c r="U43" s="25"/>
       <c r="V43" s="25"/>
-      <c r="W43" s="25"/>
+      <c r="W43" s="33" t="s">
+        <v>98</v>
+      </c>
       <c r="X43" s="25"/>
       <c r="Y43" s="25"/>
       <c r="Z43" s="25"/>
@@ -3691,27 +3698,27 @@
       <c r="AE43" s="25"/>
       <c r="AF43" s="25"/>
       <c r="AG43" s="25"/>
-      <c r="AH43" s="27"/>
-      <c r="AI43" s="27"/>
-      <c r="AJ43" s="27"/>
-      <c r="AK43" s="27"/>
-      <c r="AL43" s="27"/>
-      <c r="AM43" s="27"/>
-      <c r="AN43" s="27"/>
-      <c r="AO43" s="27"/>
-      <c r="AP43" s="27"/>
-      <c r="AQ43" s="27"/>
-      <c r="AR43" s="27"/>
+      <c r="AH43" s="26"/>
+      <c r="AI43" s="26"/>
+      <c r="AJ43" s="26"/>
+      <c r="AK43" s="26"/>
+      <c r="AL43" s="26"/>
+      <c r="AM43" s="26"/>
+      <c r="AN43" s="26"/>
+      <c r="AO43" s="26"/>
+      <c r="AP43" s="26"/>
+      <c r="AQ43" s="26"/>
+      <c r="AR43" s="26"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="19" t="s">
-        <v>85</v>
+      <c r="A44" s="20" t="s">
+        <v>82</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
-      <c r="C44" s="33" t="s">
-        <v>99</v>
+      <c r="C44" s="34" t="s">
+        <v>100</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
@@ -3719,9 +3726,7 @@
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
-      <c r="J44" s="25" t="s">
-        <v>88</v>
-      </c>
+      <c r="J44" s="25"/>
       <c r="K44" s="26"/>
       <c r="L44" s="25"/>
       <c r="M44" s="25"/>
@@ -3745,27 +3750,27 @@
       <c r="AE44" s="25"/>
       <c r="AF44" s="25"/>
       <c r="AG44" s="25"/>
-      <c r="AH44" s="27"/>
-      <c r="AI44" s="27"/>
-      <c r="AJ44" s="27"/>
-      <c r="AK44" s="27"/>
-      <c r="AL44" s="27"/>
-      <c r="AM44" s="27"/>
-      <c r="AN44" s="27"/>
-      <c r="AO44" s="27"/>
-      <c r="AP44" s="27"/>
-      <c r="AQ44" s="27"/>
-      <c r="AR44" s="27"/>
+      <c r="AH44" s="26"/>
+      <c r="AI44" s="26"/>
+      <c r="AJ44" s="26"/>
+      <c r="AK44" s="26"/>
+      <c r="AL44" s="26"/>
+      <c r="AM44" s="26"/>
+      <c r="AN44" s="26"/>
+      <c r="AO44" s="26"/>
+      <c r="AP44" s="26"/>
+      <c r="AQ44" s="26"/>
+      <c r="AR44" s="26"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
-      <c r="C45" s="33" t="s">
-        <v>101</v>
+      <c r="C45" s="29" t="s">
+        <v>102</v>
       </c>
       <c r="D45" s="25"/>
       <c r="E45" s="25"/>
@@ -3773,7 +3778,7 @@
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
-      <c r="J45" s="34" t="s">
+      <c r="J45" s="25" t="s">
         <v>88</v>
       </c>
       <c r="K45" s="26"/>
@@ -3799,17 +3804,17 @@
       <c r="AE45" s="25"/>
       <c r="AF45" s="25"/>
       <c r="AG45" s="25"/>
-      <c r="AH45" s="27"/>
-      <c r="AI45" s="27"/>
-      <c r="AJ45" s="27"/>
-      <c r="AK45" s="27"/>
-      <c r="AL45" s="27"/>
-      <c r="AM45" s="27"/>
-      <c r="AN45" s="27"/>
-      <c r="AO45" s="27"/>
-      <c r="AP45" s="27"/>
-      <c r="AQ45" s="27"/>
-      <c r="AR45" s="27"/>
+      <c r="AH45" s="26"/>
+      <c r="AI45" s="26"/>
+      <c r="AJ45" s="26"/>
+      <c r="AK45" s="26"/>
+      <c r="AL45" s="26"/>
+      <c r="AM45" s="26"/>
+      <c r="AN45" s="26"/>
+      <c r="AO45" s="26"/>
+      <c r="AP45" s="26"/>
+      <c r="AQ45" s="26"/>
+      <c r="AR45" s="26"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="19"/>
@@ -4006,7 +4011,7 @@
         <v>34</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C50" s="39" t="s">
         <v>36</v>
@@ -4062,7 +4067,7 @@
         <v>34</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C51" s="39" t="s">
         <v>36</v>
@@ -4114,7 +4119,7 @@
         <v>71</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C52" s="39" t="s">
         <v>36</v>
@@ -4137,7 +4142,7 @@
       <c r="S52" s="39"/>
       <c r="T52" s="39"/>
       <c r="U52" s="39" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="V52" s="39"/>
       <c r="W52" s="39"/>
@@ -4152,7 +4157,7 @@
       <c r="AF52" s="39"/>
       <c r="AG52" s="39"/>
       <c r="AH52" s="39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AI52" s="39"/>
       <c r="AJ52" s="39"/>
@@ -4170,7 +4175,7 @@
         <v>71</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C53" s="39" t="s">
         <v>36</v>
@@ -4193,7 +4198,7 @@
       <c r="S53" s="39"/>
       <c r="T53" s="39"/>
       <c r="U53" s="39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="V53" s="39"/>
       <c r="W53" s="39"/>
@@ -4226,7 +4231,7 @@
         <v>71</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C54" s="39" t="s">
         <v>36</v>
@@ -4249,7 +4254,7 @@
       <c r="S54" s="39"/>
       <c r="T54" s="39"/>
       <c r="U54" s="39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="V54" s="39"/>
       <c r="W54" s="39"/>
@@ -4264,7 +4269,7 @@
       <c r="AF54" s="39"/>
       <c r="AG54" s="39"/>
       <c r="AH54" s="39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI54" s="39"/>
       <c r="AJ54" s="39"/>
@@ -4282,7 +4287,7 @@
         <v>71</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C55" s="39" t="s">
         <v>36</v>
@@ -4305,7 +4310,7 @@
       <c r="S55" s="39"/>
       <c r="T55" s="39"/>
       <c r="U55" s="39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="V55" s="39"/>
       <c r="W55" s="39"/>
@@ -4338,7 +4343,7 @@
         <v>71</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C56" s="39" t="s">
         <v>36</v>
@@ -4361,7 +4366,7 @@
       <c r="S56" s="39"/>
       <c r="T56" s="39"/>
       <c r="U56" s="39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="V56" s="39"/>
       <c r="W56" s="39"/>
@@ -4376,7 +4381,7 @@
       <c r="AF56" s="39"/>
       <c r="AG56" s="39"/>
       <c r="AH56" s="39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AI56" s="39"/>
       <c r="AJ56" s="39"/>
@@ -4394,7 +4399,7 @@
         <v>53</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C57" s="39"/>
       <c r="D57" s="39"/>
@@ -4444,7 +4449,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C58" s="39"/>
       <c r="D58" s="39"/>
@@ -35756,7 +35761,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B1" s="42" t="s">
         <v>1</v>
@@ -35765,7 +35770,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E1" s="44"/>
       <c r="F1" s="44"/>
@@ -35788,13 +35793,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B2" s="44" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
@@ -35818,13 +35823,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D3" s="44"/>
       <c r="E3" s="44"/>
@@ -45267,25 +45272,25 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="59" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C1" s="59" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D1" s="59" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F1" s="59" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G1" s="60" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H1" s="59"/>
       <c r="I1" s="59"/>
@@ -45309,24 +45314,24 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C2" s="62">
         <f>NOW()</f>
-        <v>45124.39206</v>
+        <v>45125.04412</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E2" s="63" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F2" s="45"/>
       <c r="G2" s="64" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
@@ -46374,7 +46379,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="59" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B1" s="59" t="s">
         <v>1</v>
@@ -46417,13 +46422,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="46" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
@@ -46448,13 +46453,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="46" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
@@ -46504,13 +46509,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
@@ -46535,13 +46540,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
@@ -46566,13 +46571,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="46"/>
@@ -46597,13 +46602,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
@@ -46628,13 +46633,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
@@ -46684,13 +46689,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
@@ -46715,13 +46720,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D12" s="46"/>
       <c r="E12" s="46"/>
@@ -46746,13 +46751,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D13" s="46"/>
       <c r="E13" s="46"/>
@@ -46777,13 +46782,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
@@ -46808,13 +46813,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D15" s="46"/>
       <c r="E15" s="46"/>
@@ -46839,13 +46844,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
@@ -46895,13 +46900,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="46"/>
@@ -46926,13 +46931,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
@@ -46957,13 +46962,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
@@ -46988,13 +46993,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
@@ -47019,13 +47024,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D22" s="46"/>
       <c r="E22" s="46"/>
@@ -47050,13 +47055,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D23" s="46"/>
       <c r="E23" s="46"/>
@@ -47106,13 +47111,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D25" s="46"/>
       <c r="E25" s="46"/>
@@ -47137,13 +47142,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D26" s="46"/>
       <c r="E26" s="46"/>
@@ -47168,13 +47173,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
@@ -47199,13 +47204,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
@@ -47230,13 +47235,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D29" s="46"/>
       <c r="E29" s="46"/>
@@ -47286,13 +47291,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D31" s="46"/>
       <c r="E31" s="46"/>
@@ -47317,13 +47322,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="46" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D32" s="46"/>
       <c r="E32" s="46"/>
@@ -47373,121 +47378,121 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="72" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B34" s="72" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" s="72" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="72" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B35" s="72" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" s="72" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="72" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B36" s="72" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" s="72" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="72" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B37" s="72" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" s="72" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="72" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B38" s="72" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" s="72" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="72" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B39" s="72" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" s="72" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="72" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B40" s="72" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" s="72" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="72" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B41" s="72" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" s="72" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="72" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B42" s="72" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" s="72" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="72" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B43" s="72" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C43" s="72" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -47498,26 +47503,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="72" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B45" s="72" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" s="72" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="72" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B46" s="72" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" s="72" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -47528,13 +47533,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="63" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B48" s="63" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C48" s="63" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D48" s="63"/>
       <c r="E48" s="63"/>
@@ -47559,13 +47564,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="63" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B49" s="63" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C49" s="63" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D49" s="63"/>
       <c r="E49" s="63"/>
@@ -47591,226 +47596,226 @@
     <row r="50" ht="12.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="72" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B51" s="72" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" s="72" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="C51" s="72" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="72" t="s">
-        <v>193</v>
-      </c>
       <c r="B52" s="72" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C52" s="72" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="72" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B53" s="72" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C53" s="72" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="72" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B54" s="72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C54" s="72" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="72" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B55" s="72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C55" s="72" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="72" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B56" s="72" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C56" s="72" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="63" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B58" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="C58" s="63" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="63" t="s">
         <v>205</v>
       </c>
-      <c r="C58" s="63" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="63" t="s">
-        <v>204</v>
-      </c>
       <c r="B59" s="63" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C59" s="63" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="63" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B60" s="63" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C60" s="63" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="63" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B61" s="63" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C61" s="63" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="45" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B63" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="C63" s="63" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="C63" s="63" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="45" t="s">
-        <v>211</v>
-      </c>
       <c r="B64" s="45" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C64" s="63" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="45" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C65" s="63" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="45" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C66" s="63" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="45" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C67" s="63" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="72" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B69" s="72" t="s">
+        <v>224</v>
+      </c>
+      <c r="C69" s="72" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="C69" s="72" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="72" t="s">
-        <v>222</v>
-      </c>
       <c r="B70" s="72" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C70" s="72" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="72" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B72" s="72" t="s">
+        <v>229</v>
+      </c>
+      <c r="C72" s="73" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="C72" s="73" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="72" t="s">
-        <v>227</v>
-      </c>
       <c r="B73" s="72" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C73" s="72" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="72" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B74" s="72" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C74" s="72" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/cht_app/forms/app/assessment.xlsx
+++ b/cht_app/forms/app/assessment.xlsx
@@ -304,7 +304,7 @@
     <t>medication_time</t>
   </si>
   <si>
-    <t>What time did you took medication?</t>
+    <t>What time did you take medication?</t>
   </si>
   <si>
     <t xml:space="preserve">selected(${medication},'yes') </t>
@@ -313,7 +313,7 @@
     <t>immunization_time</t>
   </si>
   <si>
-    <t>What time did you received immunization?</t>
+    <t>What time did you receive immunization?</t>
   </si>
   <si>
     <t>selected(${immunization}, 'yes')</t>
@@ -45490,7 +45490,7 @@
       </c>
       <c r="C2" s="65">
         <f>NOW()</f>
-        <v>45132.12957</v>
+        <v>45132.17639</v>
       </c>
       <c r="D2" s="66" t="s">
         <v>143</v>

--- a/cht_app/forms/app/assessment.xlsx
+++ b/cht_app/forms/app/assessment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="246">
   <si>
     <t>type</t>
   </si>
@@ -310,6 +310,9 @@
     <t xml:space="preserve">selected(${medication},'Yes') </t>
   </si>
   <si>
+    <t>select_one duration_</t>
+  </si>
+  <si>
     <t>immunization_time</t>
   </si>
   <si>
@@ -416,6 +419,12 @@
   </si>
   <si>
     <t>Beyond 7 days</t>
+  </si>
+  <si>
+    <t>duration_</t>
+  </si>
+  <si>
+    <t>Within the Immunization Window</t>
   </si>
   <si>
     <t>form_title</t>
@@ -752,7 +761,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="DD\-MM\-YYYY\ HH\-MM\-SS"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
@@ -849,6 +858,11 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF444746"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
@@ -1135,22 +1149,22 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -1161,28 +1175,28 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="11" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="11" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="13" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="13" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="14" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="14" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="15" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="15" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="10" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="10" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="6" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="12" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3702,13 +3716,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="20" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="25"/>
@@ -3718,7 +3732,7 @@
       <c r="I43" s="25"/>
       <c r="J43" s="30"/>
       <c r="K43" s="31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L43" s="25"/>
       <c r="M43" s="33"/>
@@ -3759,10 +3773,10 @@
         <v>82</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
@@ -3811,10 +3825,10 @@
         <v>85</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D45" s="25"/>
       <c r="E45" s="25"/>
@@ -3838,7 +3852,7 @@
       <c r="U45" s="25"/>
       <c r="V45" s="25"/>
       <c r="W45" s="35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="X45" s="25"/>
       <c r="Y45" s="25"/>
@@ -3867,10 +3881,10 @@
         <v>82</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C46" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>
@@ -3919,10 +3933,10 @@
         <v>85</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
@@ -4163,7 +4177,7 @@
         <v>34</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C52" s="41" t="s">
         <v>36</v>
@@ -4219,7 +4233,7 @@
         <v>34</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C53" s="41" t="s">
         <v>36</v>
@@ -4271,7 +4285,7 @@
         <v>71</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C54" s="41" t="s">
         <v>36</v>
@@ -4294,7 +4308,7 @@
       <c r="S54" s="41"/>
       <c r="T54" s="41"/>
       <c r="U54" s="41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="V54" s="41"/>
       <c r="W54" s="41"/>
@@ -4309,7 +4323,7 @@
       <c r="AF54" s="41"/>
       <c r="AG54" s="41"/>
       <c r="AH54" s="41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AI54" s="41"/>
       <c r="AJ54" s="41"/>
@@ -4327,7 +4341,7 @@
         <v>71</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C55" s="41" t="s">
         <v>36</v>
@@ -4350,7 +4364,7 @@
       <c r="S55" s="41"/>
       <c r="T55" s="41"/>
       <c r="U55" s="41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V55" s="41"/>
       <c r="W55" s="41"/>
@@ -4383,7 +4397,7 @@
         <v>71</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C56" s="41" t="s">
         <v>36</v>
@@ -4406,7 +4420,7 @@
       <c r="S56" s="41"/>
       <c r="T56" s="41"/>
       <c r="U56" s="41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="V56" s="41"/>
       <c r="W56" s="41"/>
@@ -4421,7 +4435,7 @@
       <c r="AF56" s="41"/>
       <c r="AG56" s="41"/>
       <c r="AH56" s="41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AI56" s="41"/>
       <c r="AJ56" s="41"/>
@@ -4439,7 +4453,7 @@
         <v>71</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C57" s="41" t="s">
         <v>36</v>
@@ -4462,7 +4476,7 @@
       <c r="S57" s="41"/>
       <c r="T57" s="41"/>
       <c r="U57" s="41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V57" s="41"/>
       <c r="W57" s="41"/>
@@ -4495,7 +4509,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C58" s="41" t="s">
         <v>36</v>
@@ -4518,7 +4532,7 @@
       <c r="S58" s="41"/>
       <c r="T58" s="41"/>
       <c r="U58" s="41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="V58" s="41"/>
       <c r="W58" s="41"/>
@@ -4533,7 +4547,7 @@
       <c r="AF58" s="41"/>
       <c r="AG58" s="41"/>
       <c r="AH58" s="41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AI58" s="41"/>
       <c r="AJ58" s="41"/>
@@ -4551,7 +4565,7 @@
         <v>53</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C59" s="41"/>
       <c r="D59" s="41"/>
@@ -4601,7 +4615,7 @@
         <v>53</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C60" s="41"/>
       <c r="D60" s="41"/>
@@ -35913,7 +35927,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="44" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>1</v>
@@ -35922,7 +35936,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
@@ -35945,13 +35959,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="46" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
@@ -35975,13 +35989,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="46" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
@@ -36029,13 +36043,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
@@ -36059,13 +36073,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
@@ -36089,13 +36103,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="46"/>
@@ -36118,9 +36132,15 @@
       <c r="V7" s="49"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
+      <c r="A8" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>136</v>
+      </c>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
@@ -36141,51 +36161,65 @@
       <c r="U8" s="46"/>
       <c r="V8" s="49"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="49"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="49"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="48"/>
@@ -45466,25 +45500,25 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="61" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G1" s="62" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H1" s="61"/>
       <c r="I1" s="61"/>
@@ -45508,24 +45542,24 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="63" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C2" s="64">
         <f>NOW()</f>
-        <v>45137.88521</v>
+        <v>45146.11865</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F2" s="47"/>
       <c r="G2" s="66" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
@@ -46573,7 +46607,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="61" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1" s="61" t="s">
         <v>1</v>
@@ -46616,13 +46650,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" s="49" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D2" s="49"/>
       <c r="E2" s="49"/>
@@ -46647,13 +46681,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
@@ -46703,13 +46737,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="49" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D5" s="49"/>
       <c r="E5" s="49"/>
@@ -46734,13 +46768,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="49" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D6" s="49"/>
       <c r="E6" s="49"/>
@@ -46765,13 +46799,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="49" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D7" s="49"/>
       <c r="E7" s="49"/>
@@ -46796,13 +46830,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="49" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D8" s="49"/>
       <c r="E8" s="49"/>
@@ -46827,13 +46861,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="49" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
@@ -46883,13 +46917,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="49" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="49"/>
@@ -46914,13 +46948,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="49" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
@@ -46945,13 +46979,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="49" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="49"/>
@@ -46976,13 +47010,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="49" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D14" s="49"/>
       <c r="E14" s="49"/>
@@ -47007,13 +47041,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="49" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D15" s="49"/>
       <c r="E15" s="49"/>
@@ -47038,13 +47072,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="49" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="49"/>
@@ -47094,13 +47128,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="49" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="49"/>
@@ -47125,13 +47159,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="49" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="49"/>
@@ -47156,13 +47190,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="49" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D20" s="49"/>
       <c r="E20" s="49"/>
@@ -47187,13 +47221,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="49" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="49"/>
@@ -47218,13 +47252,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="49" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D22" s="49"/>
       <c r="E22" s="49"/>
@@ -47249,13 +47283,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="49" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="49"/>
@@ -47305,13 +47339,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="49" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="49"/>
@@ -47336,13 +47370,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="49" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D26" s="49"/>
       <c r="E26" s="49"/>
@@ -47367,13 +47401,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="49" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D27" s="49"/>
       <c r="E27" s="49"/>
@@ -47398,13 +47432,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="49" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D28" s="49"/>
       <c r="E28" s="49"/>
@@ -47429,13 +47463,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="49" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D29" s="49"/>
       <c r="E29" s="49"/>
@@ -47485,13 +47519,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="49" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C31" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D31" s="49"/>
       <c r="E31" s="49"/>
@@ -47516,13 +47550,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="49" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C32" s="49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D32" s="49"/>
       <c r="E32" s="49"/>
@@ -47572,121 +47606,121 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="74" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B34" s="74" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" s="74" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="74" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B35" s="74" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" s="74" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="74" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B36" s="74" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" s="74" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="74" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B37" s="74" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" s="74" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="74" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B38" s="74" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" s="74" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="74" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B39" s="74" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" s="74" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="74" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B40" s="74" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" s="74" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="74" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B41" s="74" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" s="74" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="74" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B42" s="74" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" s="74" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="74" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B43" s="74" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C43" s="74" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -47697,26 +47731,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="74" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B45" s="74" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" s="74" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="74" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B46" s="74" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" s="74" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -47727,13 +47761,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="65" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B48" s="65" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C48" s="65" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D48" s="65"/>
       <c r="E48" s="65"/>
@@ -47758,13 +47792,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="65" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B49" s="65" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C49" s="65" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D49" s="65"/>
       <c r="E49" s="65"/>
@@ -47790,226 +47824,226 @@
     <row r="50" ht="12.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="74" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B51" s="74" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C51" s="74" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="74" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B52" s="74" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" s="74" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="C52" s="74" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="74" t="s">
-        <v>205</v>
-      </c>
       <c r="B53" s="74" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C53" s="74" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="74" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B54" s="74" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C54" s="74" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="74" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B55" s="74" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C55" s="74" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="74" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B56" s="74" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C56" s="74" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="65" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B58" s="65" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C58" s="65" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="65" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B59" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59" s="65" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="65" t="s">
         <v>219</v>
       </c>
-      <c r="C59" s="65" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="65" t="s">
-        <v>216</v>
-      </c>
       <c r="B60" s="65" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C60" s="65" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="65" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C61" s="65" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="47" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B63" s="47" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C63" s="65" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="47" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B64" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="C64" s="65" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="C64" s="65" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="47" t="s">
-        <v>223</v>
-      </c>
       <c r="B65" s="47" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C65" s="65" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="47" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B66" s="47" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C66" s="65" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="47" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B67" s="47" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C67" s="65" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="74" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B69" s="74" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C69" s="74" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="74" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B70" s="74" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C70" s="74" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="74" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B72" s="74" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C72" s="75" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="74" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B73" s="74" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C73" s="74" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="74" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="74" t="s">
-        <v>239</v>
-      </c>
       <c r="B74" s="74" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C74" s="74" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/cht_app/forms/app/assessment.xlsx
+++ b/cht_app/forms/app/assessment.xlsx
@@ -280,7 +280,7 @@
     <t>Severe Adverse Reactions (Drug and Vaccines)</t>
   </si>
   <si>
-    <t>h1 blue</t>
+    <t>h5 blue</t>
   </si>
   <si>
     <t>select_one yes_no</t>
@@ -45635,7 +45635,7 @@
       </c>
       <c r="C2" s="66">
         <f>NOW()</f>
-        <v>45162.07074</v>
+        <v>45162.28034</v>
       </c>
       <c r="D2" s="67" t="s">
         <v>150</v>

--- a/cht_app/forms/app/assessment.xlsx
+++ b/cht_app/forms/app/assessment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="250">
   <si>
     <t>type</t>
   </si>
@@ -295,21 +295,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>immunization</t>
-  </si>
-  <si>
-    <t>Have you recently received any vaccination/immunization?</t>
-  </si>
-  <si>
-    <t>reaction</t>
-  </si>
-  <si>
-    <t>Do you have any adverse drug reactions.</t>
-  </si>
-  <si>
-    <t>selected(${medication},'Yes') or selected(${immunization}, 'Yes')</t>
-  </si>
-  <si>
     <t>select_one duration</t>
   </si>
   <si>
@@ -322,6 +307,12 @@
     <t xml:space="preserve">selected(${medication},'Yes') </t>
   </si>
   <si>
+    <t>immunization</t>
+  </si>
+  <si>
+    <t>Have you recently received any vaccination/immunization?</t>
+  </si>
+  <si>
     <t>select_one duration_</t>
   </si>
   <si>
@@ -332,6 +323,15 @@
   </si>
   <si>
     <t>selected(${immunization}, 'Yes')</t>
+  </si>
+  <si>
+    <t>reaction</t>
+  </si>
+  <si>
+    <t>Do you have any adverse drug reactions.</t>
+  </si>
+  <si>
+    <t>selected(${medication},'Yes') or selected(${immunization}, 'Yes')</t>
   </si>
   <si>
     <t>pqmp_title</t>
@@ -821,7 +821,7 @@
     </font>
     <font>
       <sz val="12.0"/>
-      <color rgb="FF333333"/>
+      <color rgb="FF444746"/>
       <name val="Cambria"/>
     </font>
     <font>
@@ -831,7 +831,7 @@
     </font>
     <font>
       <sz val="12.0"/>
-      <color rgb="FF444746"/>
+      <color rgb="FF333333"/>
       <name val="Cambria"/>
     </font>
     <font>
@@ -1100,16 +1100,16 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -3633,14 +3633,14 @@
       <c r="AR40" s="28"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="20" t="s">
-        <v>89</v>
+      <c r="A41" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
-      <c r="C41" s="30" t="s">
-        <v>94</v>
+      <c r="C41" s="31" t="s">
+        <v>95</v>
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
@@ -3648,12 +3648,14 @@
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="27" t="s">
+      <c r="J41" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="K41" s="21"/>
+      <c r="K41" s="32" t="s">
+        <v>96</v>
+      </c>
       <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
+      <c r="M41" s="33"/>
       <c r="N41" s="27"/>
       <c r="O41" s="27"/>
       <c r="P41" s="27"/>
@@ -3691,10 +3693,10 @@
         <v>89</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
-      <c r="C42" s="31" t="s">
-        <v>96</v>
+      <c r="C42" s="30" t="s">
+        <v>98</v>
       </c>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
@@ -3702,12 +3704,10 @@
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="29" t="s">
+      <c r="J42" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="K42" s="32" t="s">
-        <v>97</v>
-      </c>
+      <c r="K42" s="21"/>
       <c r="L42" s="27"/>
       <c r="M42" s="27"/>
       <c r="N42" s="27"/>
@@ -3744,13 +3744,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
-      <c r="C43" s="33" t="s">
-        <v>100</v>
+      <c r="C43" s="31" t="s">
+        <v>101</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
@@ -3758,12 +3758,14 @@
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="29"/>
+      <c r="J43" s="29" t="s">
+        <v>92</v>
+      </c>
       <c r="K43" s="32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L43" s="27"/>
-      <c r="M43" s="34"/>
+      <c r="M43" s="33"/>
       <c r="N43" s="27"/>
       <c r="O43" s="27"/>
       <c r="P43" s="27"/>
@@ -3797,13 +3799,13 @@
       <c r="AR43" s="28"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="21" t="s">
-        <v>102</v>
+      <c r="A44" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="34" t="s">
         <v>104</v>
       </c>
       <c r="D44" s="27"/>
@@ -3812,12 +3814,14 @@
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="29"/>
+      <c r="J44" s="29" t="s">
+        <v>92</v>
+      </c>
       <c r="K44" s="32" t="s">
         <v>105</v>
       </c>
       <c r="L44" s="27"/>
-      <c r="M44" s="34"/>
+      <c r="M44" s="27"/>
       <c r="N44" s="27"/>
       <c r="O44" s="27"/>
       <c r="P44" s="27"/>
@@ -4021,7 +4025,7 @@
       <c r="B48" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="34" t="s">
         <v>114</v>
       </c>
       <c r="D48" s="27"/>
@@ -45635,7 +45639,7 @@
       </c>
       <c r="C2" s="66">
         <f>NOW()</f>
-        <v>45162.28034</v>
+        <v>45162.41412</v>
       </c>
       <c r="D2" s="67" t="s">
         <v>150</v>

--- a/cht_app/forms/app/assessment.xlsx
+++ b/cht_app/forms/app/assessment.xlsx
@@ -268,7 +268,7 @@
     <t>group_report</t>
   </si>
   <si>
-    <t>field-list summary</t>
+    <t xml:space="preserve">field-list </t>
   </si>
   <si>
     <t>note</t>
@@ -277,7 +277,7 @@
     <t>sadr_title</t>
   </si>
   <si>
-    <t>Severe Adverse Reactions (Drug and Vaccines)</t>
+    <t>&lt;h5 style="color:blue"&gt;Severe Adverse Reactions (Drug and Vaccines)&lt;/h5&gt;</t>
   </si>
   <si>
     <t>h5 blue</t>
@@ -337,7 +337,7 @@
     <t>pqmp_title</t>
   </si>
   <si>
-    <t>Poor Quality Medicine</t>
+    <t>&lt;h5 style="color:blue"&gt;Poor Quality Medicine&lt;/h5&gt;</t>
   </si>
   <si>
     <t>medicine</t>
@@ -352,7 +352,7 @@
     <t>death_title</t>
   </si>
   <si>
-    <t>Death Reporting</t>
+    <t>&lt;h5 style="color:blue"&gt;Death Reporting&lt;/h5&gt;</t>
   </si>
   <si>
     <t>death</t>
@@ -45639,7 +45639,7 @@
       </c>
       <c r="C2" s="66">
         <f>NOW()</f>
-        <v>45162.41412</v>
+        <v>45168.14563</v>
       </c>
       <c r="D2" s="67" t="s">
         <v>150</v>

--- a/cht_app/forms/app/assessment.xlsx
+++ b/cht_app/forms/app/assessment.xlsx
@@ -346,7 +346,7 @@
     <t>Did you notice anything strange with your medicine?</t>
   </si>
   <si>
-    <t>[ *The label looks wrong, has unusual material in it, the color is changing, the smell is unusual, the medicine/device is not working, the packet or bottle does not seem to be usual or complete*]</t>
+    <t>The label looks wrong, has unusual material in it, the color is changing, the smell is unusual, the medicine/device is not working, the packet or bottle does not seem to be usual or complete</t>
   </si>
   <si>
     <t>death_title</t>
@@ -45639,7 +45639,7 @@
       </c>
       <c r="C2" s="66">
         <f>NOW()</f>
-        <v>45168.14563</v>
+        <v>45170.23985</v>
       </c>
       <c r="D2" s="67" t="s">
         <v>150</v>

--- a/cht_app/forms/app/assessment.xlsx
+++ b/cht_app/forms/app/assessment.xlsx
@@ -548,7 +548,7 @@
     <t>r_info</t>
   </si>
   <si>
-    <t>After submitting this form, please sync for the referral information to reach the health facility</t>
+    <t>After submitting this form, please sync for the assessment information to reach the health facility</t>
   </si>
   <si>
     <t>data</t>
@@ -22754,7 +22754,7 @@
       </c>
       <c r="C2" s="62">
         <f>NOW()</f>
-        <v>45207.96616</v>
+        <v>45207.97529</v>
       </c>
       <c r="D2" s="61" t="s">
         <v>210</v>
